--- a/Report 3 ngày/TC-3-ngày.xlsx
+++ b/Report 3 ngày/TC-3-ngày.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="79">
   <si>
     <t>Account name</t>
   </si>
@@ -62,10 +62,10 @@
     <t>active</t>
   </si>
   <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
-    <t>2024-04-05</t>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
   </si>
   <si>
     <t>I Miss You I Know - Memorial Gift For Family, Friends, Siblings - Personalized Acrylic Car Hanger_VideoAds_AHBD1025ELE2801WP_150124</t>
@@ -74,19 +74,43 @@
     <t>Nana, Mom, Auntie Family Sunflower - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Acrylic Car Hanger_VideoAds_AHYN334ELE2796WP_130124</t>
   </si>
   <si>
+    <t>I Miss You - Memorial Gift For Pet Lovers, Dog Mom, Dog Dad, Cat Mom, Cat Dad - Personalized Paw Shaped Acrylic Plaque_VideoAds_PWYN213ELE2516WP_191023</t>
+  </si>
+  <si>
+    <t>7-day click or 1-day view</t>
+  </si>
+  <si>
+    <t>Custom Photo Drive Safe - Gift For Couples, Besties, Dad, Mom, Family - Personalized Acrylic Car Hanger_VideoAds_AHNV777NAH2980WP_190124</t>
+  </si>
+  <si>
+    <t>Advantage+ shopping campaign_Top Sale_31/03</t>
+  </si>
+  <si>
+    <t>Just A Girl Boy Who Loves Traveling - Birthday Gift For Him, Her, Vacation Lovers - Personalized Luggage Tag_VideoAds_GTBD1028ELE2811WP_190124</t>
+  </si>
+  <si>
+    <t>Cartoon Bestie - Birthday, Loving Gift For Friend, Sister, Brother - Personalized Acrylic Shaking Stand_VideoAds_KSNV774HAL1877WP_160124</t>
+  </si>
+  <si>
+    <t>Just A Girl Who Loves Cruising - Gift For Travel Lovers - Personalized Luggage Tag_VideoAds_GTNA266NGO1969WP_110124</t>
+  </si>
+  <si>
+    <t>TC WP Co 02</t>
+  </si>
+  <si>
+    <t>Custom Photo A Hug From Heaven - Memorial Gift For Family, Friends - Personalized Pillow_VideoAds_PLNV722NAH2768WP_171123</t>
+  </si>
+  <si>
     <t>Custom Photo I'll Carry You - Memorial Gift For Family, Siblings, Friends - Personalized Aluminum Keychain_VideoAds_LDTS309NAH2750WP_201123</t>
   </si>
   <si>
-    <t>Custom Photo Drive Safe - Gift For Couples, Besties, Dad, Mom, Family - Personalized Acrylic Car Hanger_VideoAds_AHNV777NAH2980WP_190124</t>
-  </si>
-  <si>
-    <t>Cartoon Bestie - Birthday, Loving Gift For Friend, Sister, Brother - Personalized Acrylic Shaking Stand_VideoAds_KSNV774HAL1877WP_160124</t>
-  </si>
-  <si>
-    <t>Advantage+ shopping campaign_Top Sale_31/03</t>
-  </si>
-  <si>
-    <t>7-day click or 1-day view</t>
+    <t>Couple Chibi Our Snuggle Blanket - Gift For Couples, Anniversary, Birthday Gift - Personalized Custom Fleece Blanket_VideoAds_FBGT150CIN1131WP_070923</t>
+  </si>
+  <si>
+    <t>Just A Girl Boy Who Loves Cruising - Gift For Traveling Lovers - Personalized Custom Luggage Cover_VideoAds_LCVA475ELE1453WP_0902</t>
+  </si>
+  <si>
+    <t>Traveling Couple Hubby &amp; Wifey Travel Partners For Life - Gift For Couples, Traveling Gift - Personalized Combo 2 Luggage Tags_VideoAds_GYTK173CIN2077WP_180124</t>
   </si>
   <si>
     <t>TDo 03</t>
@@ -95,76 +119,136 @@
     <t>New Product_Custom Photo Your Loved Ones - Gift For Couples, Family BFF Best Friends, Besties - Personalized Clear Phone Case_CEHP217HEL806WP_17/01/24</t>
   </si>
   <si>
-    <t>I Miss You - Memorial Gift For Pet Lovers, Dog Mom, Dog Dad, Cat Mom, Cat Dad - Personalized Paw Shaped Acrylic Plaque_VideoAds_PWYN213ELE2516WP_191023</t>
-  </si>
-  <si>
-    <t>Just A Girl Boy Who Loves Traveling - Birthday Gift For Him, Her, Vacation Lovers - Personalized Luggage Tag_VideoAds_GTBD1028ELE2811WP_190124</t>
+    <t>A Bond That Can't Be Broken - Gift For Dog Lovers, Dog Mom - Personalized Mug_VideoAds_WMAK899NAH2864WP_051223</t>
+  </si>
+  <si>
+    <t>Couple Kissing - Anniversary Gift For Couples - Personalized Cutout Acrylic Keychain_VideoAds_CKYN284ELE2663WP_121223</t>
   </si>
   <si>
     <t>It's On My List - Gift For Traveling Lovers, Vacation Lovers, Travelers, Him, Her - Personalized Luggage Tag_VideoAds_GTNA262HEL780WP_110124</t>
   </si>
   <si>
-    <t>TC WP Co 02</t>
-  </si>
-  <si>
-    <t>Custom Photo A Hug From Heaven - Memorial Gift For Family, Friends - Personalized Pillow_VideoAds_PLNV722NAH2768WP_171123</t>
-  </si>
-  <si>
-    <t>Just A Girl Boy Who Loves Cruising - Gift For Traveling Lovers - Personalized Custom Luggage Cover_VideoAds_LCVA475ELE1453WP_0902</t>
-  </si>
-  <si>
-    <t>Couple Kissing - Anniversary Gift For Couples - Personalized Cutout Acrylic Keychain_VideoAds_CKYN284ELE2663WP_121223</t>
-  </si>
-  <si>
-    <t>Traveling Couple Hubby &amp; Wifey Travel Partners For Life - Gift For Couples, Traveling Gift - Personalized Combo 2 Luggage Tags_VideoAds_GYTK173CIN2077WP_180124</t>
-  </si>
-  <si>
-    <t>Couple Chibi Our Snuggle Blanket - Gift For Couples, Anniversary, Birthday Gift - Personalized Custom Fleece Blanket_VideoAds_FBGT150CIN1131WP_070923</t>
-  </si>
-  <si>
     <t>Family Couple The Day I Met You - Couple Gift - Personalized Custom Tumbler_VideoAds_TUBD556ELE1421WP_1911</t>
   </si>
   <si>
-    <t>Just A Girl Who Loves Cruising - Gift For Travel Lovers - Personalized Luggage Tag_VideoAds_GTNA266NGO1969WP_110124</t>
-  </si>
-  <si>
-    <t>A Bond That Can't Be Broken - Gift For Dog Lovers, Dog Mom - Personalized Mug_VideoAds_WMAK899NAH2864WP_051223</t>
+    <t>Just A Girl Boy Who Loves Traveling - Gift For Traveling Lovers - Personalized Custom Luggage Cover_VideoAds_LCVA464ELE1415WP_0902</t>
+  </si>
+  <si>
+    <t>Grow Up To Be A Super Cool Grandma - Funny Gift For Grandma, Mom, Nana, Gigi - Personalized T Shirt_VideoAdsR_TSVA806NAH3272WP_100424</t>
+  </si>
+  <si>
+    <t>Best Dog Mom Ever - Funny Gift For Dog Lovers, Dog Moms - Personalized T Shirt_VideoAdsR_TSVA808NAH3277WP_100424</t>
+  </si>
+  <si>
+    <t>Dope Black Dad Best Dad Ever - Gift For Dads, Grandpas, Daughters, Sons - Personalized T Shirt_VideoAdsR_TSYN439ELE3105WP_100424</t>
+  </si>
+  <si>
+    <t>Heart Tree Mom - Birthday, Loving Gift For Mother, Grandma, Auntie - Personalized 2-Layered Wooden Plaque With Stand_VideoAdsR_PSAH622ELE3024WP_100424</t>
+  </si>
+  <si>
+    <t>Cool Grandma Club - Funny Gift For Grandma, Mom, Nana, Gigi - Personalized T Shirt_VideoAdsR_TSVA804NAH3263WP_100424</t>
+  </si>
+  <si>
+    <t>Legend Husband Father Grandpa - Funny Gift For Dad, Father, Grandpa - Personalized Hip Flask_VideoAdsR_HFNV860NAH3257WP_100424</t>
+  </si>
+  <si>
+    <t>If Not Now When - Gift For Travellers, Travelling Lovers, Him, Her - Personalized Passport Cover, Passport Holder_VideoAdsR_PCBD1083ELE3095WP_100424</t>
+  </si>
+  <si>
+    <t>Like Mother Like Daughter - Gift For Mom, Mother, Grandma, Daughter - Personalized White Edge-to-Edge Mug_VideoAdsR_EMNV833NAH3163WP_100424</t>
+  </si>
+  <si>
+    <t>Queens Are Born - Birthday Gift For Women - Personalized Leather Bag_VideoAdsR_EATT985NEL2188WP_100424</t>
+  </si>
+  <si>
+    <t>Dog Mom - Funny Gift For Dog Lovers, Pet Lovers - Personalized T Shirt_VideoAdsR_TSBD1092NAH3285WP_100424</t>
+  </si>
+  <si>
+    <t>I'm A Professional Grandma - Funny, Retirement Gift For Grandma, Mom, Nana, Gigi - Personalized T Shirt_VideoAdsR_TSVA809NAH3281WP_100424</t>
+  </si>
+  <si>
+    <t>What Day Is Today Who Cares Retired - Retirement Gift For Women, Mom, Grandma - Personalized T Shirt_VideoAdsR_TSBD1090NAH3278WP_100424</t>
+  </si>
+  <si>
+    <t>Nana's Grandpa's Sweethearts Wood Pattern - Gift For Grandmas, Grandpas - Personalized T Shirt_VideoAdsR_TSNN430NGO2185WP_100424</t>
+  </si>
+  <si>
+    <t>It's Not A Dad Bod - Funny Gift For Dad, Father, Grandpa - Personalized T Shirt_VideoAdsR_TSNV864NAH3266WP_100424</t>
+  </si>
+  <si>
+    <t>At A Rave - Gift For Mother, Father - Personalized Doormat_VideoAdsR_DMKK843NEL2198WP_100424</t>
+  </si>
+  <si>
+    <t>Graduation Appreciation - Graduation Gift For Friends, Family - Personalized Acrylic Car Hanger_VideoAdsR_AHTN1219ELE3107WP_100424</t>
+  </si>
+  <si>
+    <t>I'm A Professional Cat Mom - Funny, Retirement Gift For Cat Mom, Grandma - Personalized T Shirt_VideoAdsR_TSAK1071NAH3271WP_100424</t>
+  </si>
+  <si>
+    <t>If Not Now When - Gift For Travellers, Travelling Lovers, Him, Her - Personalized Luggage Cover_VideoAdsR_LCBD1084ELE3096WP_100424</t>
+  </si>
+  <si>
+    <t>First Mom Now Grandma - Gift For Mothers, Grandmas, Aunties - Personalized Acrylic Keychain_VideoAdsR_AKYN448ELE3125WP_100424</t>
+  </si>
+  <si>
+    <t>First Mom Now Grandma - Gift For Mothers, Grandmas, Aunties - 3D Inflated Effect Printed Dish, Personalized Ring Dish_VideoAdsR_RIYN450ELE3127WP_100424</t>
+  </si>
+  <si>
+    <t>Hand In Hand, I Will Always Protect You - Birthday, Loving Gift For Dad, Father, Grandfather, Grandpa - Personalized Tape Measure_VideoAdsR_TMNA334HEL946WP_100424</t>
   </si>
   <si>
     <t>Drive Slow Drunk Campers Matter Husband Wife Camping Couple - Personalized Custom Flag_VideoAds_FLCH006NAH940WP_0103</t>
   </si>
   <si>
+    <t>Custom Photo A Piece Of My Heart Is At The Rainbow Bridge - Pet Memorial Gift - Personalized Acrylic Car Hanger_VideoAdsR_AHTN1210ELE3053WP_100424</t>
+  </si>
+  <si>
+    <t>Custom Photo Funny Dream Job - Gift For Kids, Grandkids - Personalized 3D Led Light Wooden Base_VideoAdsR_LWBD1086ELE3100WP_100424</t>
+  </si>
+  <si>
+    <t>Custom Photo Funny Kid Animal Cosplay - Gift For Children, Grandkids - Personalized Magnet_VideoAdsR_GMAH632ELE3075WP_100424</t>
+  </si>
+  <si>
+    <t>Custom Photo Funny Kids Pet Family - Gift For Parents, Grandparents, Pet Lovers - Personalized Magnet_VideoAdsR_GMAH635ELE3078WP_100424</t>
+  </si>
+  <si>
+    <t>Custom Photo Best Dad By Par - Gift For Dad, Father, Grandpa, Golfer, Golf Lover - Personalized Hip Flask_VideoAdsR_HFAK1070NAH3268WP_100424</t>
+  </si>
+  <si>
+    <t>Thank You Best Dog Mom Ever - Mother Gift - Personalized Custom Tumbler_VideoAds_TUTN662HAL690WP_2612</t>
+  </si>
+  <si>
+    <t>You &amp; Me And The Dogs Camping Husband Wife - Couple Gift - Personalized Custom Flag_VideoAds_FLTN615NAH1136WP_2012</t>
+  </si>
+  <si>
+    <t>Together Since Husband Wife - Couple Gift - Personalized Custom Pillow_VideoAds_PLAK442NAH1138WP_1612</t>
+  </si>
+  <si>
+    <t>Just A Girl Who Loves Traveling - Gift For Travel Lovers - Personalized Luggage Tag_VideoAds_GTNA265NGO1964WP_180124</t>
+  </si>
+  <si>
+    <t>Custom Photo Baseball Player - Gift For Baseball, Softball Players - Personalized Baseball, Softball_VideoAdsR_BBTB500CIN2199WP_100424</t>
+  </si>
+  <si>
     <t>Cute Cats Aesthetic Pattern - Birthday, Loving Gift For Cat Mom, Cat Lovers - Personalized Leather Long Wallet_LLNN379HEL809WP_18/01/24</t>
   </si>
   <si>
-    <t>Together Since Husband Wife - Couple Gift - Personalized Custom Pillow_VideoAds_PLAK442NAH1138WP_1612</t>
-  </si>
-  <si>
-    <t>You &amp; Me And The Dogs Camping Husband Wife - Couple Gift - Personalized Custom Flag_VideoAds_FLTN615NAH1136WP_2012</t>
-  </si>
-  <si>
-    <t>Just A Girl Boy Who Loves Traveling - Gift For Traveling Lovers - Personalized Custom Luggage Cover_VideoAds_LCVA464ELE1415WP_0902</t>
-  </si>
-  <si>
-    <t>Just A Girl Who Loves Traveling - Gift For Travel Lovers - Personalized Luggage Tag_VideoAds_GTNA265NGO1964WP_180124</t>
-  </si>
-  <si>
-    <t>Thank You Best Dog Mom Ever - Mother Gift - Personalized Custom Tumbler_VideoAds_TUTN662HAL690WP_2612</t>
-  </si>
-  <si>
     <t>You And Me And The Dog Cat - Gift For Pet Lovers - Personalized Pillow_VideoAds_PLDT879NGO1706WP_201023</t>
   </si>
   <si>
+    <t>Collect Moments Not Things - Gift For Travellers, Travelling Lovers, Him, Her - Personalized Luggage Tag_VideoAds_GTDT982HEL772WP_110124</t>
+  </si>
+  <si>
+    <t>New Product_Custom Photo Your Dogs Cats - Gift For Pet Lovers - Personalized Clear Phone Case_CENA273HEL800WP_17/01/24</t>
+  </si>
+  <si>
     <t>Cat Mom Funny Cartoon Style - Gift For Cat Lovers - Personalized Leather Bag_VideoAds_EANA219HEL670WP_160124</t>
   </si>
   <si>
     <t>I Miss You - Memorial Gift For Pet Lovers, Dog Mom, Dog Dad, Cat Mom, Cat Dad - Personalized Fleece Blanket_VideoAds_FBYN223ELE2539WP_171023</t>
   </si>
   <si>
-    <t>New Product_Custom Photo Your Dogs Cats - Gift For Pet Lovers - Personalized Clear Phone Case_CENA273HEL800WP_17/01/24</t>
-  </si>
-  <si>
-    <t>Collect Moments Not Things - Gift For Travellers, Travelling Lovers, Him, Her - Personalized Luggage Tag_VideoAds_GTDT982HEL772WP_110124</t>
+    <t>inactive</t>
   </si>
 </sst>
 </file>
@@ -509,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -572,19 +656,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>231891.0</v>
+        <v>155527.0</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>281550.0</v>
+        <v>186411.0</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>1.21414803</v>
+        <v>1.19857645</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>2585.21</v>
+        <v>1763.6</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
@@ -607,19 +691,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>137037.0</v>
+        <v>136636.0</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>171053.0</v>
+        <v>168673.0</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>1.24822493</v>
+        <v>1.23446969</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="8" t="n">
-        <v>1352.56</v>
+        <v>1398.67</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
@@ -642,19 +726,19 @@
         <v>19</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>94677.0</v>
+        <v>180172.0</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>116945.0</v>
+        <v>218265.0</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>1.23519968</v>
+        <v>1.21142575</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="8" t="n">
-        <v>587.48</v>
+        <v>996.64</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
@@ -677,22 +761,22 @@
         <v>20</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>43025.0</v>
+        <v>76791.0</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>59066.0</v>
+        <v>95004.0</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>1.37282975</v>
+        <v>1.23717623</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="8" t="n">
-        <v>490.37</v>
+        <v>434.32</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>15</v>
@@ -709,22 +793,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>60307.0</v>
+        <v>44945.0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>72200.0</v>
+        <v>53844.0</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>1.19720762</v>
+        <v>1.19799755</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>471.48</v>
+        <v>376.42</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
@@ -744,25 +828,25 @@
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>42373.0</v>
+        <v>34010.0</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>49933.0</v>
+        <v>41574.0</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>1.1784155</v>
+        <v>1.22240517</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>385.94</v>
+        <v>298.88</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>15</v>
@@ -779,25 +863,25 @@
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>32887.0</v>
+        <v>11126.0</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>40387.0</v>
+        <v>14632.0</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>1.22805364</v>
+        <v>1.31511774</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="8" t="n">
-        <v>292.93</v>
+        <v>297.49</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>15</v>
@@ -811,28 +895,28 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="6" t="n">
-        <v>39104.0</v>
+        <v>30921.0</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>48330.0</v>
+        <v>37432.0</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>1.23593494</v>
+        <v>1.21056887</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>249.68</v>
+        <v>276.29</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>15</v>
@@ -849,25 +933,25 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>38169.0</v>
+        <v>17690.0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>47975.0</v>
+        <v>21045.0</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>1.25691006</v>
+        <v>1.18965517</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>238.74</v>
+        <v>233.18</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>15</v>
@@ -881,25 +965,25 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8068.0</v>
+        <v>22103.0</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10254.0</v>
+        <v>26450.0</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>1.27094695</v>
+        <v>1.19667014</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>199.96</v>
+        <v>212.25</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>14</v>
@@ -922,19 +1006,19 @@
         <v>29</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>4184.0</v>
+        <v>22318.0</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>5542.0</v>
+        <v>29107.0</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>1.32456979</v>
+        <v>1.30419392</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="8" t="n">
-        <v>175.81</v>
+        <v>210.57</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>14</v>
@@ -951,28 +1035,28 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="C13" s="6" t="n">
-        <v>12002.0</v>
+        <v>18075.0</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>14876.0</v>
+        <v>24051.0</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>1.23946009</v>
+        <v>1.33062241</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>173.49</v>
+        <v>179.21</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>15</v>
@@ -989,25 +1073,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15830.0</v>
+        <v>19838.0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20781.0</v>
+        <v>25120.0</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>1.31276058</v>
+        <v>1.26625668</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="8" t="n">
-        <v>169.19</v>
+        <v>174.62</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>15</v>
@@ -1021,25 +1105,25 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18955.0</v>
+        <v>6077.0</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24112.0</v>
+        <v>8304.0</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>1.27206542</v>
+        <v>1.36646372</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>159.64</v>
+        <v>150.09</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>14</v>
@@ -1056,28 +1140,28 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>11118.0</v>
+        <v>13368.0</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>14535.0</v>
+        <v>16355.0</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>1.30733945</v>
+        <v>1.22344405</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="8" t="n">
-        <v>147.03</v>
+        <v>149.73</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>15</v>
@@ -1091,28 +1175,28 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>5771.0</v>
+        <v>17434.0</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>7770.0</v>
+        <v>22378.0</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>1.34638711</v>
+        <v>1.2835838</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="8" t="n">
-        <v>145.26</v>
+        <v>149.55</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>15</v>
@@ -1126,28 +1210,28 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11882.0</v>
+        <v>5048.0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14959.0</v>
+        <v>6609.0</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>1.25896314</v>
+        <v>1.30923138</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>141.93</v>
+        <v>119.56</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>15</v>
@@ -1161,28 +1245,28 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9726.0</v>
+        <v>6888.0</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11457.0</v>
+        <v>8539.0</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>1.17797656</v>
+        <v>1.23969222</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>115.78</v>
+        <v>66.72</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>15</v>
@@ -1202,19 +1286,19 @@
         <v>37</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>5743.0</v>
+        <v>1666.0</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>6720.0</v>
+        <v>2114.0</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>1.17012015</v>
+        <v>1.26890756</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>87.63</v>
+        <v>62.55</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>14</v>
@@ -1231,28 +1315,28 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3061.0</v>
+        <v>5362.0</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3939.0</v>
+        <v>6300.0</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>1.28683437</v>
+        <v>1.17493473</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="8" t="n">
-        <v>87.32</v>
+        <v>61.22</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>15</v>
@@ -1266,28 +1350,28 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6058.0</v>
+        <v>6005.0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7683.0</v>
+        <v>7554.0</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>1.26824034</v>
+        <v>1.25795171</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="8" t="n">
-        <v>75.43</v>
+        <v>60.32</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>15</v>
@@ -1301,28 +1385,28 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6036.0</v>
+        <v>2775.0</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7961.0</v>
+        <v>3269.0</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>1.31891981</v>
+        <v>1.17801802</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="8" t="n">
-        <v>71.83</v>
+        <v>48.58</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>15</v>
@@ -1336,28 +1420,28 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>16625.0</v>
+        <v>3138.0</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>19346.0</v>
+        <v>3612.0</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>1.16366917</v>
+        <v>1.15105163</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="8" t="n">
-        <v>59.14</v>
+        <v>48.32</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>15</v>
@@ -1377,22 +1461,22 @@
         <v>42</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>6099.0</v>
+        <v>3890.0</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>8217.0</v>
+        <v>4581.0</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>1.34727004</v>
+        <v>1.17763496</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="8" t="n">
-        <v>40.29</v>
+        <v>48.08</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>15</v>
@@ -1412,22 +1496,22 @@
         <v>43</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3315.0</v>
+        <v>2484.0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4484.0</v>
+        <v>3199.0</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>1.35263952</v>
+        <v>1.28784219</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="8" t="n">
-        <v>36.31</v>
+        <v>48.03</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>15</v>
@@ -1447,19 +1531,19 @@
         <v>44</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1202.0</v>
+        <v>3221.0</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1469.0</v>
+        <v>3868.0</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>1.22212978</v>
+        <v>1.2008693</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="8" t="n">
-        <v>29.55</v>
+        <v>47.97</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>14</v>
@@ -1482,22 +1566,22 @@
         <v>45</v>
       </c>
       <c r="C28" s="6" t="n">
-        <v>1679.0</v>
+        <v>4334.0</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>2068.0</v>
+        <v>6113.0</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>1.23168553</v>
+        <v>1.41047531</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="8" t="n">
-        <v>29.01</v>
+        <v>47.78</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>15</v>
@@ -1511,28 +1595,28 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="6" t="n">
-        <v>2465.0</v>
+        <v>3519.0</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>3024.0</v>
+        <v>4238.0</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>1.22677485</v>
+        <v>1.20431941</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="8" t="n">
-        <v>27.52</v>
+        <v>47.52</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>15</v>
@@ -1552,19 +1636,19 @@
         <v>47</v>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2847.0</v>
+        <v>2969.0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3706.0</v>
+        <v>3750.0</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>1.30172111</v>
+        <v>1.26305153</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>27.22</v>
+        <v>47.64</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>14</v>
@@ -1587,22 +1671,22 @@
         <v>48</v>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1628.0</v>
+        <v>3025.0</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2185.0</v>
+        <v>3509.0</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>1.34213759</v>
+        <v>1.16</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="8" t="n">
-        <v>19.71</v>
+        <v>47.54</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>15</v>
@@ -1616,28 +1700,28 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="6" t="n">
-        <v>1368.0</v>
+        <v>2732.0</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>1672.0</v>
+        <v>3675.0</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>1.22222222</v>
+        <v>1.34516837</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="8" t="n">
-        <v>15.92</v>
+        <v>47.33</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>15</v>
@@ -1657,19 +1741,19 @@
         <v>50</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>619.0</v>
+        <v>2864.0</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>711.0</v>
+        <v>3248.0</v>
       </c>
       <c r="E33" s="7" t="n">
-        <v>1.14862682</v>
+        <v>1.13407821</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="8" t="n">
-        <v>14.74</v>
+        <v>47.26</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>14</v>
@@ -1681,6 +1765,951 @@
         <v>16</v>
       </c>
       <c r="K33" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>3281.0</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>3743.0</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>1.14081073</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>47.01</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>3245.0</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>4549.0</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>1.401849</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>4669.0</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>6102.0</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>1.30691797</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>46.87</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>3409.0</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>4177.0</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>1.22528601</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>46.81</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>3232.0</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>4316.0</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>1.33539604</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>46.55</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>2839.0</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>3532.0</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>1.24410004</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>46.54</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>2727.0</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>3532.0</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>1.29519619</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>46.63</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>3221.0</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>4927.0</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>1.52964918</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>3602.0</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>4986.0</v>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>1.38423098</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="8" t="n">
+        <v>46.12</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>3911.0</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>5138.0</v>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>1.3137305</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="8" t="n">
+        <v>46.07</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>3457.0</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>4319.0</v>
+      </c>
+      <c r="E44" s="7" t="n">
+        <v>1.24934915</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>44.43</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>2844.0</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>3934.0</v>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>1.38326301</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>2983.0</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>4699.0</v>
+      </c>
+      <c r="E46" s="7" t="n">
+        <v>1.57525981</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>3173.0</v>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>4744.0</v>
+      </c>
+      <c r="E47" s="7" t="n">
+        <v>1.49511503</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="6" t="n">
+        <v>2471.0</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>4027.0</v>
+      </c>
+      <c r="E48" s="7" t="n">
+        <v>1.62970457</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>40.01</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="6" t="n">
+        <v>2881.0</v>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>5302.0</v>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>1.84033322</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>39.68</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="6" t="n">
+        <v>1836.0</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>2398.0</v>
+      </c>
+      <c r="E50" s="7" t="n">
+        <v>1.30610022</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="6" t="n">
+        <v>5515.0</v>
+      </c>
+      <c r="D51" s="6" t="n">
+        <v>7489.0</v>
+      </c>
+      <c r="E51" s="7" t="n">
+        <v>1.35793291</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="6" t="n">
+        <v>18823.0</v>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>23572.0</v>
+      </c>
+      <c r="E52" s="7" t="n">
+        <v>1.25229772</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>35.99</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="6" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>2125.0</v>
+      </c>
+      <c r="E53" s="7" t="n">
+        <v>1.22196665</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="6" t="n">
+        <v>2451.0</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>2883.0</v>
+      </c>
+      <c r="E54" s="7" t="n">
+        <v>1.17625459</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="6" t="n">
+        <v>2615.0</v>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>3067.0</v>
+      </c>
+      <c r="E55" s="7" t="n">
+        <v>1.17284895</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="8" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="6" t="n">
+        <v>1710.0</v>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>2146.0</v>
+      </c>
+      <c r="E56" s="7" t="n">
+        <v>1.25497076</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="8" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="6" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="E57" s="7" t="n">
+        <v>1.19642857</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="6" t="n">
+        <v>1572.0</v>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>1884.0</v>
+      </c>
+      <c r="E58" s="7" t="n">
+        <v>1.19847328</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="6" t="n">
+        <v>1438.0</v>
+      </c>
+      <c r="D59" s="6" t="n">
+        <v>1833.0</v>
+      </c>
+      <c r="E59" s="7" t="n">
+        <v>1.27468707</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="6" t="n">
+        <v>1134.0</v>
+      </c>
+      <c r="D60" s="6" t="n">
+        <v>1422.0</v>
+      </c>
+      <c r="E60" s="7" t="n">
+        <v>1.25396825</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="9" t="s">
         <v>17</v>
       </c>
     </row>
